--- a/final_data_2.xlsx
+++ b/final_data_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jithin H S\Downloads\Excel_Webapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01C84E61-0B71-44E5-8937-BB7D71FBCDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB1196A1-BE95-4F56-A7E0-82FEA47D16AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>COLOUR</t>
   </si>
@@ -39,9 +39,6 @@
     <t>SHADE</t>
   </si>
   <si>
-    <t>SHELF</t>
-  </si>
-  <si>
     <t>QUANTITY</t>
   </si>
   <si>
@@ -75,33 +72,6 @@
     <t>134H</t>
   </si>
   <si>
-    <t>2a</t>
-  </si>
-  <si>
-    <t>6c</t>
-  </si>
-  <si>
-    <t>7b</t>
-  </si>
-  <si>
-    <t>6t</t>
-  </si>
-  <si>
-    <t>2c</t>
-  </si>
-  <si>
-    <t>2b</t>
-  </si>
-  <si>
-    <t>3e</t>
-  </si>
-  <si>
-    <t>1d</t>
-  </si>
-  <si>
-    <t>2e</t>
-  </si>
-  <si>
     <t>122H</t>
   </si>
   <si>
@@ -139,6 +109,24 @@
   </si>
   <si>
     <t>bright</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>SHELF NUMBER</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>CONSUMPTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE </t>
+  </si>
+  <si>
+    <t>BALANCE</t>
   </si>
 </sst>
 </file>
@@ -146,7 +134,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.###"/>
+    <numFmt numFmtId="164" formatCode="0.###"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -177,13 +165,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -524,301 +520,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G11"/>
+      <selection activeCell="G2" sqref="G2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
     <col min="3" max="5" width="15.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="7">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7">
+        <v>235</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3">
+        <v>45291</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4">
+        <v>45291</v>
+      </c>
+      <c r="M2" s="5">
+        <f>H2-K2</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3">
-        <v>235</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
+      <c r="B3" s="6">
+        <v>232</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2">
-        <v>232</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="7">
+        <v>34</v>
+      </c>
+      <c r="H3" s="7">
         <v>25</v>
       </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
+      <c r="K3">
+        <v>24</v>
+      </c>
+      <c r="M3" s="5">
+        <f>H3-K3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="7">
+        <v>34</v>
+      </c>
+      <c r="H4" s="7">
         <v>100</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
+      <c r="K4">
+        <v>34</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" ref="M4:M11" si="0">H4-K4</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6">
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="3">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7">
         <v>12</v>
       </c>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
+      <c r="K5">
+        <v>45</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="0"/>
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6">
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2">
-        <v>67</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
         <v>35</v>
       </c>
-      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
+      <c r="K6">
+        <v>56</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6">
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2">
-        <v>78</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="7">
         <v>54</v>
       </c>
-      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
+      <c r="K7">
+        <v>67</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6">
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2">
-        <v>79</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="3">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="7">
+        <v>76</v>
+      </c>
+      <c r="H8" s="7">
         <v>10</v>
       </c>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
+      <c r="K8">
+        <v>78</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="0"/>
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6">
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="3">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="7">
+        <v>98</v>
+      </c>
+      <c r="H9" s="7">
         <v>36</v>
       </c>
-      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
+      <c r="K9">
+        <v>58</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="0"/>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6">
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="3">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="7">
+        <v>87</v>
+      </c>
+      <c r="H10" s="7">
         <v>86</v>
       </c>
-      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
+      <c r="K10">
+        <v>57</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6">
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="3">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="7">
+        <v>68</v>
+      </c>
+      <c r="H11" s="7">
         <v>25</v>
       </c>
-      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
+      <c r="K11">
+        <v>23</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
